--- a/dados/avaliacao_fisica.xlsx
+++ b/dados/avaliacao_fisica.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="raw_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data_for_date" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="unpivot_for_valueInRow" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -570,132 +572,1574 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>65.80</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>105.50</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>76.50</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2022-11-12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12.02%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14.94%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>53.00</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18.15%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>66.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>102.50</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>106.00</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>55.50</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18.69%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>117.00</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>104.50</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>52.50</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11-12</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-04</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-12</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2023-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>65.80</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IMC</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>28.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>%_Gordura</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>12.02%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.94%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18.15%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Massa_Magra</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Massa_Gorda</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DC_Peitoral</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DC_Abdominal</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DC_Coxa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ombro</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>105.50</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>117.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Torax_Relaxado</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Térax_Inspirado</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>102.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Abdome</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Cintura</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>76.50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Quadril</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>106.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>104.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>RCQ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Antebraco_Esq</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Antebrago_Dir</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Brago_Relax_</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Braco_Relax_Dir</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Brago_Contr_</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Brago_Contr_Dir</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Coxa_Esq</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>53.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Coxa_Dir</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>55.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>52.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Panturrilha_Esq</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D126"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Musculo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Valores</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ano_Mes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="n">
         <v>44776</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>65.80</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9.91%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>69.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>13.00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>105.50</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>90.00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>95.00</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>82.00</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>76.50</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>97.00</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>26.50</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>29.50</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>49.00</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>35.00</t>
+          <t>2022-08</t>
         </is>
       </c>
     </row>
@@ -705,127 +2149,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>70.40</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12.02%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>61.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>110.00</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>96.50</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>81.00</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>29.50</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>31.00</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>33.00</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>54.00</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>54.00</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>38.00</t>
+          <t>2022-11</t>
         </is>
       </c>
     </row>
@@ -835,127 +2169,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>76.70</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>14.94%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>65.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>11.46</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>23.00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>20.00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>96.00</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>83.00</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>86.00</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>98.00</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>30.50</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>29.50</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>32.00</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>34.50</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>35.00</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>53.00</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>56.00</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>38.50</t>
+          <t>2023-02</t>
         </is>
       </c>
     </row>
@@ -965,127 +2189,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>80.90</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>18.15%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>66.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>14.68</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>111.00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>97.50</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>102.50</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>87.00</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>106.00</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>27.00</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>32.50</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>32.50</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>35.50</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>36.00</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>57.50</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>55.50</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>39.50</t>
+          <t>2023-07</t>
         </is>
       </c>
     </row>
@@ -1095,127 +2209,2417 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>81.80</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>1.68</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Altura</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IMC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>IMC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>IMC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>IMC</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IMC</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>28.98</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>%_Gordura</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>%_Gordura</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>12.02%</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>%_Gordura</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14.94%</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>%_Gordura</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>18.15%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>%_Gordura</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>18.69%</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Massa_Magra</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>69.28</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Massa_Magra</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Massa_Magra</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>65.24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Massa_Magra</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>66.22</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Massa_Magra</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>66.51</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Massa_Gorda</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Massa_Gorda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Massa_Gorda</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Massa_Gorda</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Massa_Gorda</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>15.29</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DC_Peitoral</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>11.00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DC_Peitoral</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DC_Peitoral</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DC_Peitoral</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DC_Peitoral</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DC_Abdominal</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DC_Abdominal</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DC_Abdominal</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DC_Abdominal</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DC_Abdominal</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>31.00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DC_Coxa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DC_Coxa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DC_Coxa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DC_Coxa</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DC_Coxa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>24.00</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ombro</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>105.50</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ombro</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ombro</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>112.00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ombro</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ombro</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>117.00</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Torax_Relaxado</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Torax_Relaxado</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Torax_Relaxado</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Torax_Relaxado</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>97.50</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Torax_Relaxado</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Térax_Inspirado</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Térax_Inspirado</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Térax_Inspirado</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Térax_Inspirado</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>102.50</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Térax_Inspirado</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>97.00</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Abdome</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>82.00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Abdome</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Abdome</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Abdome</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Abdome</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>91.50</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Cintura</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>76.50</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Cintura</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Cintura</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Cintura</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Cintura</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>87.50</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Quadril</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Quadril</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Quadril</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Quadril</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>106.00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Quadril</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>104.50</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RCQ</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>RCQ</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>0.84</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>RCQ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>RCQ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>RCQ</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Antebraco_Esq</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Antebraco_Esq</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Antebraco_Esq</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Antebraco_Esq</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Antebraco_Esq</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>28.00</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Antebrago_Dir</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Antebrago_Dir</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>28.50</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Antebrago_Dir</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Antebrago_Dir</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Antebrago_Dir</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Brago_Relax_</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>26.50</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Brago_Relax_</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Brago_Relax_</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Brago_Relax_</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Brago_Relax_</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>33.00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Braco_Relax_Dir</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Braco_Relax_Dir</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Braco_Relax_Dir</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Braco_Relax_Dir</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Braco_Relax_Dir</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>33.50</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Brago_Contr_</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Brago_Contr_</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Brago_Contr_</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>34.50</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Brago_Contr_</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
         <is>
           <t>35.50</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Brago_Contr_</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Brago_Contr_Dir</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Brago_Contr_Dir</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Brago_Contr_Dir</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Brago_Contr_Dir</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Brago_Contr_Dir</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>36.00</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Coxa_Esq</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Coxa_Esq</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Coxa_Esq</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>53.00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Coxa_Esq</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>57.50</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Coxa_Esq</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>55.00</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Coxa_Dir</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Coxa_Dir</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Coxa_Dir</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>56.00</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Coxa_Dir</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>55.50</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Coxa_Dir</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>52.50</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Panturrilha_Esq</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Panturrilha_Esq</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>38.00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Panturrilha_Esq</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>38.50</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Panturrilha_Esq</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>39.50</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Panturrilha_Esq</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>40.50</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-09</t>
         </is>
       </c>
     </row>
